--- a/biology/Médecine/Mareva_Tourneux/Mareva_Tourneux.xlsx
+++ b/biology/Médecine/Mareva_Tourneux/Mareva_Tourneux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mareva Tourneux, née le 5 octobre 1952 à Pirae[1], est une médecin polynésienne française.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mareva Tourneux, née le 5 octobre 1952 à Pirae, est une médecin polynésienne française.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mareva Tourneux est la fille du docteur Andréa de Balmann[2].
-Elle étudie à l'Université de Nancy en France et obtenu son diplôme de docteur en médecine en 1979[2].
-En tant que médecin, elle développe les services de planning familial en Polynésie française et introduit le dépistage gratuit du cancer du sein et du cancer de l'utérus[3],[4].
-En 2016, elle travaille comme directrice de la santé et cheffe de cabinet du ministre de la Santé en Polynésie, Patrick Howell[1],[5].
-En 2022, elle dirige un centre de dialyse rénale à Moorea[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mareva Tourneux est la fille du docteur Andréa de Balmann.
+Elle étudie à l'Université de Nancy en France et obtenu son diplôme de docteur en médecine en 1979.
+En tant que médecin, elle développe les services de planning familial en Polynésie française et introduit le dépistage gratuit du cancer du sein et du cancer de l'utérus,.
+En 2016, elle travaille comme directrice de la santé et cheffe de cabinet du ministre de la Santé en Polynésie, Patrick Howell,.
+En 2022, elle dirige un centre de dialyse rénale à Moorea.
 </t>
         </is>
       </c>
@@ -546,11 +560,13 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2012, Mareva Tourneux est décorée chevalière de l'Ordre national du Mérite[1].
-En juin 2014, elle est faite chevalière de l'Ordre de Tahiti Nui[1],[7].
-En juillet 2018, elle est faite chevalière de la Légion d'honneur[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2012, Mareva Tourneux est décorée chevalière de l'Ordre national du Mérite.
+En juin 2014, elle est faite chevalière de l'Ordre de Tahiti Nui,.
+En juillet 2018, elle est faite chevalière de la Légion d'honneur.
 </t>
         </is>
       </c>
